--- a/Project/Phase 2/Sprint2/Sprint Backlog.xlsx
+++ b/Project/Phase 2/Sprint2/Sprint Backlog.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafa\Desktop\SE2223_57514_60045_60602_60694_60700\Project\Phase 2\Sprint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F782CCC-391A-40C1-A768-3B2C120DD8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4066540-AC71-4880-93D2-ADC52DA10BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Sprint Backlog" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -90,11 +90,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -130,7 +137,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,6 +234,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -384,120 +397,133 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,7 +748,7 @@
   <dimension ref="B1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -744,150 +770,157 @@
   <sheetData>
     <row r="1" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="39" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="39" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="K2" s="38" t="s">
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="37" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="K3" s="34" t="s">
+      <c r="I3" s="40"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="32"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="17"/>
-      <c r="K4" s="30" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="17"/>
-      <c r="K5" s="27" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="17"/>
-      <c r="K6" s="23" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="17"/>
-      <c r="K7" s="16" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10">
+      <c r="C11" s="18"/>
+      <c r="D11" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="8">
+      <c r="C12" s="13"/>
+      <c r="D12" s="4">
         <v>2</v>
       </c>
-      <c r="I12" s="40"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="8">
+      <c r="C13" s="13"/>
+      <c r="D13" s="4">
         <v>3</v>
       </c>
+      <c r="K13" s="43"/>
     </row>
     <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5">
+      <c r="C14" s="21"/>
+      <c r="D14" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Project/Phase 2/Sprint2/Sprint Backlog.xlsx
+++ b/Project/Phase 2/Sprint2/Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafa\Desktop\SE2223_57514_60045_60602_60694_60700\Project\Phase 2\Sprint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4066540-AC71-4880-93D2-ADC52DA10BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73A984C-0547-4A72-9DBB-D9DFAAE81DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>TODO</t>
   </si>
@@ -85,16 +85,26 @@
   <si>
     <t>Review Use Case Diagram    Review a Set of Metrics</t>
   </si>
+  <si>
+    <t>Make a Video explaining the added functionalities</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -320,15 +330,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -349,15 +350,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -394,136 +386,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -748,7 +792,7 @@
   <dimension ref="B1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -770,56 +814,56 @@
   <sheetData>
     <row r="1" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="35" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="35" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="37" t="s">
+      <c r="I2" s="18"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="40" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="10" t="s">
+      <c r="I3" s="20"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="9" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -828,30 +872,30 @@
         <v>15</v>
       </c>
       <c r="C5" s="29"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="8" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="7" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -860,68 +904,86 @@
         <v>15</v>
       </c>
       <c r="C7" s="27"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="6" t="s">
+      <c r="D7" s="40"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
+    <row r="8" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="44"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="42"/>
+    </row>
+    <row r="9" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="49"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+    </row>
+    <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
     </row>
     <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="13"/>
+      <c r="B12" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="46"/>
       <c r="D12" s="4">
-        <v>2</v>
-      </c>
-      <c r="I12" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="4">
-        <v>3</v>
-      </c>
-      <c r="K13" s="43"/>
+      <c r="B13" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="K13" s="13"/>
     </row>
     <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="21"/>
+      <c r="B14" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="47"/>
       <c r="D14" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="48"/>
+      <c r="D15" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1909,22 +1971,20 @@
     <row r="999" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B4:C4"/>
+  <mergeCells count="37">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F6:G6"/>
@@ -1934,12 +1994,21 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Project/Phase 2/Sprint2/Sprint Backlog.xlsx
+++ b/Project/Phase 2/Sprint2/Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafa\Desktop\SE2223_57514_60045_60602_60694_60700\Project\Phase 2\Sprint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73A984C-0547-4A72-9DBB-D9DFAAE81DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE47A6A-D60C-4DA5-8525-64A2F998C484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>TODO</t>
   </si>
@@ -88,16 +88,27 @@
   <si>
     <t>Make a Video explaining the added functionalities</t>
   </si>
+  <si>
+    <t>Review Use Case Diagram
+Review a Set of Metrics</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,7 +158,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,19 +204,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor rgb="FFFC9696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor rgb="FFFC9696"/>
       </patternFill>
     </fill>
     <fill>
@@ -420,153 +419,141 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -792,7 +779,7 @@
   <dimension ref="B1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -814,173 +801,173 @@
   <sheetData>
     <row r="1" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="18" t="s">
+      <c r="G2" s="29"/>
+      <c r="H2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="18"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="11"/>
       <c r="K2" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="20" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="20"/>
+      <c r="I3" s="35"/>
       <c r="J3" s="11"/>
       <c r="K3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="37"/>
       <c r="J4" s="11"/>
       <c r="K4" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="15"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="38"/>
       <c r="J5" s="11"/>
       <c r="K5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15"/>
+      <c r="B6" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
       <c r="J6" s="11"/>
       <c r="K6" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="37"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="40"/>
       <c r="J7" s="11"/>
       <c r="K7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="42"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="46"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="4">
         <v>1</v>
       </c>
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="47"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="3">
         <v>2</v>
       </c>
       <c r="K13" s="13"/>
     </row>
     <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="47"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="48"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="2">
         <v>4</v>
       </c>
@@ -1972,6 +1959,35 @@
     <row r="1000" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
@@ -1980,35 +1996,6 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
